--- a/documentation/Testing/TestingReport - Manual_v1.xlsx
+++ b/documentation/Testing/TestingReport - Manual_v1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Result</t>
   </si>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,10 +1879,12 @@
       <c r="N21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1922,10 +1924,12 @@
       <c r="N22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1965,10 +1969,12 @@
       <c r="N23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2235,10 +2241,12 @@
       <c r="N29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2278,10 +2286,12 @@
       <c r="N30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2321,10 +2331,12 @@
       <c r="N31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/documentation/Testing/TestingReport - Manual_v1.xlsx
+++ b/documentation/Testing/TestingReport - Manual_v1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoriadudley\Desktop\Team-Infinite\documentation\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs02.opaltelecom.com\IRLOfflineFiles$\eric.diep\Documents\GitHub\Team-Infinite\documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Result</t>
   </si>
@@ -135,6 +135,54 @@
   </si>
   <si>
     <t>Alert "Exchange ids must be different."</t>
+  </si>
+  <si>
+    <t>Test Group 2</t>
+  </si>
+  <si>
+    <t>Test for grid display</t>
+  </si>
+  <si>
+    <t>Test for exchange ID on displayed grid</t>
+  </si>
+  <si>
+    <t>When clicking calculate, the grid should be displayed, requirement M7</t>
+  </si>
+  <si>
+    <t>Test for distance on displayed grid</t>
+  </si>
+  <si>
+    <t>The Exchange ID must be shown on the displayed grid, requirement M7</t>
+  </si>
+  <si>
+    <t>Test for customer address on displayed grid</t>
+  </si>
+  <si>
+    <t>The customer must be shown on the top left of the displayed grid, requirement M8</t>
+  </si>
+  <si>
+    <t>The distance of exchange id from customer must be shown on the displayed grid, requirement M7</t>
+  </si>
+  <si>
+    <t>ex:0:0 at coordinates [10,15] and ex:0:1 at coordinates [5,5]</t>
+  </si>
+  <si>
+    <t>20 by 20 grid is displayed</t>
+  </si>
+  <si>
+    <t>d: 25 under ex:0:0 at [10,15] and d: 10 under ex:0:1 at [5,5]</t>
+  </si>
+  <si>
+    <t>home displayed at coordinates [0,0]</t>
+  </si>
+  <si>
+    <t>Test for exchange location [0,0]</t>
+  </si>
+  <si>
+    <t>The exchange ID and distance from customer should be shown below "home" at [0,0]</t>
+  </si>
+  <si>
+    <t>d: 0 shown under ex:0:0 which is shown under home at [0,0]</t>
   </si>
 </sst>
 </file>
@@ -191,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -616,6 +664,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -623,7 +691,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -661,6 +729,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -701,6 +778,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -708,7 +788,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1005,71 +1185,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29:O31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="57" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43" t="s">
+      <c r="D3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="35"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
@@ -1100,11 +1280,11 @@
       <c r="M4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1.1000000000000001</v>
       </c>
@@ -1155,7 +1335,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -1200,7 +1380,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -1245,7 +1425,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -1290,7 +1470,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>1.2</v>
       </c>
@@ -1341,7 +1521,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1386,7 +1566,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1431,7 +1611,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1476,7 +1656,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1521,7 +1701,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1566,7 +1746,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1611,7 +1791,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>1.3</v>
       </c>
@@ -1662,7 +1842,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1707,7 +1887,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1752,7 +1932,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1797,7 +1977,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1842,7 +2022,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1887,7 +2067,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1932,7 +2112,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1977,7 +2157,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>28</v>
@@ -2024,7 +2204,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2069,7 +2249,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2114,7 +2294,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2159,7 +2339,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2204,7 +2384,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2249,7 +2429,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2294,7 +2474,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2339,7 +2519,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>1.4</v>
       </c>
@@ -2390,7 +2570,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
@@ -2437,8 +2617,702 @@
         <v>PASS</v>
       </c>
     </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="26">
+        <v>20</v>
+      </c>
+      <c r="E39" s="26">
+        <v>20</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>10</v>
+      </c>
+      <c r="I39" s="26">
+        <v>15</v>
+      </c>
+      <c r="J39" s="26">
+        <v>0</v>
+      </c>
+      <c r="K39" s="26">
+        <v>1</v>
+      </c>
+      <c r="L39" s="26">
+        <v>5</v>
+      </c>
+      <c r="M39" s="26">
+        <v>5</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="1" t="str">
+        <f>IF(O39=N39,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="18">
+        <v>20</v>
+      </c>
+      <c r="E40" s="19">
+        <v>20</v>
+      </c>
+      <c r="F40" s="19">
+        <v>10</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>10</v>
+      </c>
+      <c r="I40" s="19">
+        <v>15</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>5</v>
+      </c>
+      <c r="M40" s="19">
+        <v>5</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="1" t="str">
+        <f t="shared" ref="P40:P45" si="1">IF(O40=N40,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E41" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>10</v>
+      </c>
+      <c r="I41" s="10">
+        <v>15</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>5</v>
+      </c>
+      <c r="M41" s="10">
+        <v>5</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="15">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>10</v>
+      </c>
+      <c r="I42" s="16">
+        <v>15</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16">
+        <v>5</v>
+      </c>
+      <c r="M42" s="16">
+        <v>5</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="21">
+        <v>20</v>
+      </c>
+      <c r="E43" s="10">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>20</v>
+      </c>
+      <c r="I43" s="10">
+        <v>20</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+      <c r="L43" s="10">
+        <v>10</v>
+      </c>
+      <c r="M43" s="10">
+        <v>10</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="15">
+        <v>20</v>
+      </c>
+      <c r="E44" s="16">
+        <v>20</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>10</v>
+      </c>
+      <c r="I44" s="16">
+        <v>10</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="25">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="24"/>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>10</v>
+      </c>
+      <c r="I45" s="10">
+        <v>15</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
+      <c r="L45" s="10">
+        <v>5</v>
+      </c>
+      <c r="M45" s="10">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="15">
+        <v>20</v>
+      </c>
+      <c r="E46" s="16">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>10</v>
+      </c>
+      <c r="I46" s="16">
+        <v>10</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+      <c r="L46" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="25">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="24"/>
+      <c r="P46" s="1" t="str">
+        <f t="shared" ref="P46:P47" si="2">IF(O46=N46,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="16">
+        <v>20</v>
+      </c>
+      <c r="E47" s="16">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19">
+        <v>10</v>
+      </c>
+      <c r="I47" s="19">
+        <v>15</v>
+      </c>
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19">
+        <v>5</v>
+      </c>
+      <c r="M47" s="19">
+        <v>5</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="17"/>
+      <c r="P47" s="49" t="str">
+        <f>IF(O47=N47,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="19">
+        <v>20</v>
+      </c>
+      <c r="E48" s="19">
+        <v>20</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
+        <v>10</v>
+      </c>
+      <c r="I48" s="19">
+        <v>15</v>
+      </c>
+      <c r="J48" s="19">
+        <v>0</v>
+      </c>
+      <c r="K48" s="19">
+        <v>1</v>
+      </c>
+      <c r="L48" s="19">
+        <v>5</v>
+      </c>
+      <c r="M48" s="19">
+        <v>5</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="50" t="str">
+        <f>IF(O48=N48,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="19">
+        <v>20</v>
+      </c>
+      <c r="E49" s="19">
+        <v>20</v>
+      </c>
+      <c r="F49" s="19">
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
+        <v>10</v>
+      </c>
+      <c r="I49" s="19">
+        <v>15</v>
+      </c>
+      <c r="J49" s="19">
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
+        <v>1</v>
+      </c>
+      <c r="L49" s="19">
+        <v>5</v>
+      </c>
+      <c r="M49" s="19">
+        <v>5</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="50" t="str">
+        <f t="shared" ref="P49:P51" si="3">IF(O49=N49,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>2.8</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="19">
+        <v>20</v>
+      </c>
+      <c r="E50" s="19">
+        <v>20</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0</v>
+      </c>
+      <c r="J50" s="19">
+        <v>0</v>
+      </c>
+      <c r="K50" s="19">
+        <v>1</v>
+      </c>
+      <c r="L50" s="19">
+        <v>5</v>
+      </c>
+      <c r="M50" s="19">
+        <v>5</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="20"/>
+      <c r="P50" s="50" t="str">
+        <f t="shared" ref="P50" si="4">IF(O50=N50,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="10">
+        <v>20</v>
+      </c>
+      <c r="E51" s="10">
+        <v>20</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>10</v>
+      </c>
+      <c r="I51" s="10">
+        <v>15</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>1</v>
+      </c>
+      <c r="L51" s="10">
+        <v>5</v>
+      </c>
+      <c r="M51" s="10">
+        <v>5</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>FAIL</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="N37:N38"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A3:A4"/>
@@ -2448,11 +3322,51 @@
     <mergeCell ref="O3:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="P5:P33">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:P41">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P42:P43">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P45">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46:P51">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
